--- a/多介质模型文献阅读/Excel文献拆解/BS004论文拆解.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/BS004论文拆解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="15" r:id="rId1"/>
@@ -675,50 +675,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,36 +757,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,15 +1166,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>424704</xdr:colOff>
+      <xdr:colOff>1608525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2281598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>652341</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>36419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4067735</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2491810</xdr:rowOff>
+      <xdr:rowOff>2206060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,7 +1191,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16852528" y="5605743"/>
+          <a:off x="18032346" y="5343205"/>
           <a:ext cx="3643031" cy="2455391"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1876,6 +1876,44 @@
         <a:xfrm>
           <a:off x="39468138" y="9698182"/>
           <a:ext cx="4991457" cy="7221682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3737027</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4468090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12607636" y="18894137"/>
+          <a:ext cx="3685073" cy="4294908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,9 +2431,9 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="5" width="27.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="43.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="27.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.625" customWidth="1"/>
@@ -2420,17 +2458,17 @@
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -2463,12 +2501,12 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2484,12 +2522,12 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2505,12 +2543,12 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="2"/>
@@ -2522,16 +2560,16 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2"/>
@@ -2543,16 +2581,16 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="2"/>
@@ -2564,16 +2602,16 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="2"/>
@@ -2585,10 +2623,10 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="2"/>
@@ -2610,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2629,11 +2667,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2664,18 +2702,18 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="14" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="2"/>
@@ -2698,7 +2736,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="16" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="2"/>
@@ -2719,7 +2757,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2728,34 +2766,34 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -2765,7 +2803,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2775,16 +2813,16 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2805,9 +2843,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="30"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2824,9 +2862,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="31"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2834,16 +2872,16 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="22" t="s">
@@ -2853,8 +2891,8 @@
       <c r="G12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2862,7 +2900,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="200.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="361.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:15" ht="200.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:15" ht="200.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:15" ht="200.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2886,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2913,22 +2951,22 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>67</v>
       </c>
     </row>

--- a/多介质模型文献阅读/Excel文献拆解/BS004论文拆解.xlsx
+++ b/多介质模型文献阅读/Excel文献拆解/BS004论文拆解.xlsx
@@ -1166,15 +1166,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1608525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2281598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>652341</xdr:colOff>
+      <xdr:colOff>430888</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2206060</xdr:rowOff>
+      <xdr:rowOff>30234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4081340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2483151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,8 +1191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18032346" y="5343205"/>
-          <a:ext cx="3643031" cy="2455391"/>
+          <a:off x="16865843" y="5606689"/>
+          <a:ext cx="3650452" cy="2452917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2802,10 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <f>MIN(D8:D50)</f>
+        <v>0</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2924,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
